--- a/input/images/data-dictionary/mCODEDataDictionary-STU3-vs-STU2.1.xlsx
+++ b/input/images/data-dictionary/mCODEDataDictionary-STU3-vs-STU2.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4366" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4346" uniqueCount="1219">
   <si>
     <t/>
   </si>
@@ -4470,27 +4470,6 @@
   </si>
   <si>
     <t>Neutron Beam Technique Value Set</t>
-  </si>
-  <si>
-    <t>Tumor Size Units Value Set</t>
-  </si>
-  <si>
-    <t>Unified Code for Units of Measure</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>Centimeter</t>
-  </si>
-  <si>
-    <t>UCUM</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Millimeter</t>
   </si>
 </sst>
 </file>
@@ -10687,7 +10666,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="130">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -12263,94 +12242,6 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-    </row>
-    <row r="107" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
